--- a/xlsx/华道夫-阿斯多里亚酒店_intext.xlsx
+++ b/xlsx/华道夫-阿斯多里亚酒店_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_华道夫-阿斯多里亚酒店</t>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_华道夫-阿斯多里亚酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%88%BE%E9%A0%93%E5%85%A8%E7%90%83%E9%85%92%E5%BA%97%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>希爾頓全球酒店集團</t>
+    <t>希尔顿全球酒店集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A6%E4%BF%9D%E9%99%A9</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BD%BF</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%A4%AE%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>大中央車站</t>
+    <t>大中央车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E5%8F%B0</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>富蘭克林·羅斯福</t>
+    <t>富兰克林·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E8%90%8A%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿德萊·史蒂文森</t>
+    <t>阿德莱·史蒂文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E9%BA%A5%E5%85%8B%E9%98%BF%E7%91%9F</t>
   </si>
   <si>
-    <t>道格拉斯·麥克阿瑟</t>
+    <t>道格拉斯·麦克阿瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -125,37 +125,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%B4%BB%E7%AB%A0</t>
   </si>
   <si>
-    <t>李鴻章</t>
+    <t>李鸿章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%8C%A6%E6%BF%A4</t>
   </si>
   <si>
-    <t>胡錦濤</t>
+    <t>胡锦涛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%B6%E5%AF%B6</t>
   </si>
   <si>
-    <t>溫家寶</t>
+    <t>温家宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E9%81%93%E5%A4%AB-%E9%98%BF%E6%96%AF%E5%A4%9A%E9%87%8C%E4%BA%9A%E9%85%92%E5%BA%97_(%E7%BA%BD%E7%BA%A6)</t>
